--- a/Extras/AvesTables.xlsx
+++ b/Extras/AvesTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Bird" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1009">
   <si>
     <t>Id</t>
   </si>
@@ -651,9 +651,6 @@
     <t>Black-billed thrush</t>
   </si>
   <si>
-    <t>Blackbird</t>
-  </si>
-  <si>
     <t>Black-chested buzzard eagle</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
     <t>Common wood pigeon</t>
   </si>
   <si>
-    <t>Cormorant</t>
-  </si>
-  <si>
     <t>Crested lark</t>
   </si>
   <si>
@@ -891,15 +885,9 @@
     <t>Croaking ground dove</t>
   </si>
   <si>
-    <t>Crossbill</t>
-  </si>
-  <si>
     <t>Crossed mallard</t>
   </si>
   <si>
-    <t>Crow</t>
-  </si>
-  <si>
     <t>Dark-eyed junco</t>
   </si>
   <si>
@@ -1008,18 +996,12 @@
     <t>Gadwall</t>
   </si>
   <si>
-    <t>Gannet</t>
-  </si>
-  <si>
     <t>Glossy ibis</t>
   </si>
   <si>
     <t>Goldcrest</t>
   </si>
   <si>
-    <t>Goldeneye</t>
-  </si>
-  <si>
     <t>Gray catbird</t>
   </si>
   <si>
@@ -1116,9 +1098,6 @@
     <t>Hen harrier</t>
   </si>
   <si>
-    <t>Herring gull</t>
-  </si>
-  <si>
     <t>Hoatzin</t>
   </si>
   <si>
@@ -1128,9 +1107,6 @@
     <t>Hooded siskin</t>
   </si>
   <si>
-    <t>Hoopoe</t>
-  </si>
-  <si>
     <t>Horned grebe</t>
   </si>
   <si>
@@ -1155,9 +1131,6 @@
     <t>Jackdaw</t>
   </si>
   <si>
-    <t>Jay</t>
-  </si>
-  <si>
     <t>Keel-billed toucan</t>
   </si>
   <si>
@@ -1215,9 +1188,6 @@
     <t>Magnificent frigatebird</t>
   </si>
   <si>
-    <t>Magpie</t>
-  </si>
-  <si>
     <t>Mallard</t>
   </si>
   <si>
@@ -1242,9 +1212,6 @@
     <t>Meadow pipit</t>
   </si>
   <si>
-    <t>Merganser</t>
-  </si>
-  <si>
     <t>Monk parakeet</t>
   </si>
   <si>
@@ -1308,9 +1275,6 @@
     <t>Pelagic cormorant</t>
   </si>
   <si>
-    <t>Penduline tit</t>
-  </si>
-  <si>
     <t>Peregrine falcon</t>
   </si>
   <si>
@@ -1329,9 +1293,6 @@
     <t>Peruvian thick-knee</t>
   </si>
   <si>
-    <t>Phainopepla</t>
-  </si>
-  <si>
     <t>Pied avocet</t>
   </si>
   <si>
@@ -1359,12 +1320,6 @@
     <t>Puna teal</t>
   </si>
   <si>
-    <t>Purple gallinulle</t>
-  </si>
-  <si>
-    <t>Purple swamphen</t>
-  </si>
-  <si>
     <t>Purple-throated fruitcrow</t>
   </si>
   <si>
@@ -1461,12 +1416,6 @@
     <t>Short-eared owl</t>
   </si>
   <si>
-    <t>Shoveler</t>
-  </si>
-  <si>
-    <t>Shrike</t>
-  </si>
-  <si>
     <t>Silver-beaked tanager</t>
   </si>
   <si>
@@ -1524,9 +1473,6 @@
     <t>Steller jay</t>
   </si>
   <si>
-    <t>Stilt</t>
-  </si>
-  <si>
     <t>Stock dove</t>
   </si>
   <si>
@@ -1626,12 +1572,6 @@
     <t>Whinchat</t>
   </si>
   <si>
-    <t>White goose</t>
-  </si>
-  <si>
-    <t>White ibis</t>
-  </si>
-  <si>
     <t>White stork</t>
   </si>
   <si>
@@ -1674,27 +1614,18 @@
     <t>Whooper swan</t>
   </si>
   <si>
-    <t>Widgeon</t>
-  </si>
-  <si>
     <t>Wild turkey</t>
   </si>
   <si>
     <t>Willet</t>
   </si>
   <si>
-    <t>Willlow warbler</t>
-  </si>
-  <si>
     <t>Willow tit</t>
   </si>
   <si>
     <t>Wilson's phalarope</t>
   </si>
   <si>
-    <t>Wood lark</t>
-  </si>
-  <si>
     <t>Wood sandpiper</t>
   </si>
   <si>
@@ -1722,9 +1653,6 @@
     <t>Yellow-rumped warbler</t>
   </si>
   <si>
-    <t>Yellow-tuffed woodpecker</t>
-  </si>
-  <si>
     <t>Black woodpecker</t>
   </si>
   <si>
@@ -1939,13 +1867,1189 @@
   </si>
   <si>
     <t>Daptrius ater</t>
+  </si>
+  <si>
+    <t>Sayornis nigricans</t>
+  </si>
+  <si>
+    <t>Phoenicurus ochruros</t>
+  </si>
+  <si>
+    <t>Rynchops niger</t>
+  </si>
+  <si>
+    <t>Chlidonias niger)</t>
+  </si>
+  <si>
+    <t>Dryocopus martius</t>
+  </si>
+  <si>
+    <t>Turdus ignobilis</t>
+  </si>
+  <si>
+    <t>Turdus merula</t>
+  </si>
+  <si>
+    <t>Common blackbird</t>
+  </si>
+  <si>
+    <t>Geranoaetus melanoleucus</t>
+  </si>
+  <si>
+    <t>Nycticorax nycticorax</t>
+  </si>
+  <si>
+    <t>Tiaris bicolor</t>
+  </si>
+  <si>
+    <t>Phoebastria nigripes</t>
+  </si>
+  <si>
+    <t>Monasa nigrifrons</t>
+  </si>
+  <si>
+    <t>Chroicocephalus ridibundus</t>
+  </si>
+  <si>
+    <t>Rissa tridactyla</t>
+  </si>
+  <si>
+    <t>Himantopus mexicanus</t>
+  </si>
+  <si>
+    <t>Limosa limosa</t>
+  </si>
+  <si>
+    <t>Trogon melanurus</t>
+  </si>
+  <si>
+    <t>Gavia arctica</t>
+  </si>
+  <si>
+    <t>Cyanistes caeruleus</t>
+  </si>
+  <si>
+    <t>Ara ararauna</t>
+  </si>
+  <si>
+    <t>Volatinia jacarina</t>
+  </si>
+  <si>
+    <t>Polioptila caerulea</t>
+  </si>
+  <si>
+    <t>Thraupis episcopus</t>
+  </si>
+  <si>
+    <t>Chlorostilbon mellisugus</t>
+  </si>
+  <si>
+    <t>Luscinia svecica</t>
+  </si>
+  <si>
+    <t>Quiscalus major</t>
+  </si>
+  <si>
+    <t>Bombycilla garrulus</t>
+  </si>
+  <si>
+    <t>Hieraaetus pennatus</t>
+  </si>
+  <si>
+    <t>Fringilla montifringilla</t>
+  </si>
+  <si>
+    <t>Branta bernicla</t>
+  </si>
+  <si>
+    <t>Euphagus cyanocephalus</t>
+  </si>
+  <si>
+    <t>Buteo platypterus</t>
+  </si>
+  <si>
+    <t>Pelecanus occidentalis</t>
+  </si>
+  <si>
+    <t>Molothrus ater</t>
+  </si>
+  <si>
+    <t>Bucephala albeola</t>
+  </si>
+  <si>
+    <t>Athene cunicularia</t>
+  </si>
+  <si>
+    <t>Larus californicus</t>
+  </si>
+  <si>
+    <t>Callipepla californica</t>
+  </si>
+  <si>
+    <t>Melozone crissalis</t>
+  </si>
+  <si>
+    <t>Branta canadensis</t>
+  </si>
+  <si>
+    <t>Pilherodius pileatus</t>
+  </si>
+  <si>
+    <t>Quiscalus lugubris</t>
+  </si>
+  <si>
+    <t>Hydroprogne caspia</t>
+  </si>
+  <si>
+    <t>Bubulcus ibis</t>
+  </si>
+  <si>
+    <t>Poecile rufescens</t>
+  </si>
+  <si>
+    <t>Ara severus</t>
+  </si>
+  <si>
+    <t>Sporophila telasco</t>
+  </si>
+  <si>
+    <t>Conirostrum cinereum</t>
+  </si>
+  <si>
+    <t>Spatula cyanoptera</t>
+  </si>
+  <si>
+    <t>Aechmophorus clarkii</t>
+  </si>
+  <si>
+    <t>Periparus ater</t>
+  </si>
+  <si>
+    <t>Pizella pallida</t>
+  </si>
+  <si>
+    <t>Geositta peruviana</t>
+  </si>
+  <si>
+    <t>Brotogeris cyanoptera</t>
+  </si>
+  <si>
+    <t>Buteo buteo</t>
+  </si>
+  <si>
+    <t>Fringilla coelebs</t>
+  </si>
+  <si>
+    <t>Phylloscopus collybita</t>
+  </si>
+  <si>
+    <t>Cuculus canorus</t>
+  </si>
+  <si>
+    <t>Somateria mollissima</t>
+  </si>
+  <si>
+    <t>Regulus ignicapilla</t>
+  </si>
+  <si>
+    <t>Tringa nebularia</t>
+  </si>
+  <si>
+    <t>Columbina passerina</t>
+  </si>
+  <si>
+    <t>Larus canus</t>
+  </si>
+  <si>
+    <t>Falco tinnunculus</t>
+  </si>
+  <si>
+    <t>Linaria cannabina</t>
+  </si>
+  <si>
+    <t>Gavia immer</t>
+  </si>
+  <si>
+    <t>Gallinula chloropus</t>
+  </si>
+  <si>
+    <t>Uria aalge</t>
+  </si>
+  <si>
+    <t>Aythya ferina</t>
+  </si>
+  <si>
+    <t>Corvus corax</t>
+  </si>
+  <si>
+    <t>Acanthis flammea</t>
+  </si>
+  <si>
+    <t>Tringa totanus</t>
+  </si>
+  <si>
+    <t>Phoenicurus phoenicurus</t>
+  </si>
+  <si>
+    <t>Emberiza schoeniclus</t>
+  </si>
+  <si>
+    <t>Charadrius hiaticula</t>
+  </si>
+  <si>
+    <t>Actitis hypoleucos</t>
+  </si>
+  <si>
+    <t>Tadorna tadorna</t>
+  </si>
+  <si>
+    <t>Gallinago gallinago</t>
+  </si>
+  <si>
+    <t>Apus apus</t>
+  </si>
+  <si>
+    <t>Sterna hirundo</t>
+  </si>
+  <si>
+    <t>Columba palumbus</t>
+  </si>
+  <si>
+    <t>Geothlypis trichas</t>
+  </si>
+  <si>
+    <t>Grus grus</t>
+  </si>
+  <si>
+    <t>Galerida cristata</t>
+  </si>
+  <si>
+    <t>Lophostrix cristata</t>
+  </si>
+  <si>
+    <t>Columbina cruziana</t>
+  </si>
+  <si>
+    <t>Red crossbill</t>
+  </si>
+  <si>
+    <t>Loxia curvirostra</t>
+  </si>
+  <si>
+    <t>Junco hyemalis</t>
+  </si>
+  <si>
+    <t>Columba livia domestica</t>
+  </si>
+  <si>
+    <t>Phalacrocorax auritus</t>
+  </si>
+  <si>
+    <t>Dryobates pubescens</t>
+  </si>
+  <si>
+    <t>Ochthornis littoralis</t>
+  </si>
+  <si>
+    <t>Calidris alpina</t>
+  </si>
+  <si>
+    <t>Zenaida auriculata</t>
+  </si>
+  <si>
+    <t>Sayornis phoebe</t>
+  </si>
+  <si>
+    <t>Thalasseus elegans</t>
+  </si>
+  <si>
+    <t>Botaurus stellaris</t>
+  </si>
+  <si>
+    <t>Sylvia atricapilla</t>
+  </si>
+  <si>
+    <t>Pyrrhula pyrrhula</t>
+  </si>
+  <si>
+    <t>Fulica atra</t>
+  </si>
+  <si>
+    <t>Numenius arquata</t>
+  </si>
+  <si>
+    <t>Falco subbuteo</t>
+  </si>
+  <si>
+    <t>Alcedo atthis</t>
+  </si>
+  <si>
+    <t>Sitta europaea</t>
+  </si>
+  <si>
+    <t>Haematopus ostralegus</t>
+  </si>
+  <si>
+    <t>Acrocephalus scirpaceus</t>
+  </si>
+  <si>
+    <t>Spinus spinus</t>
+  </si>
+  <si>
+    <t>Accipiter nisus</t>
+  </si>
+  <si>
+    <t>Anas crecca</t>
+  </si>
+  <si>
+    <t>Certhia familiaris</t>
+  </si>
+  <si>
+    <t>Mareca penelope</t>
+  </si>
+  <si>
+    <t>Troglodytes troglodytes</t>
+  </si>
+  <si>
+    <t>Jynx torquilla</t>
+  </si>
+  <si>
+    <t>Lophophanes cristatus</t>
+  </si>
+  <si>
+    <t>Carduelis carduelis</t>
+  </si>
+  <si>
+    <t>Chloris chloris</t>
+  </si>
+  <si>
+    <t>Picus viridis</t>
+  </si>
+  <si>
+    <t>Larus argentatus</t>
+  </si>
+  <si>
+    <t>Pernis apivorus</t>
+  </si>
+  <si>
+    <t>Basileuterus lachrymosus</t>
+  </si>
+  <si>
+    <t>Lophornis chalybeus</t>
+  </si>
+  <si>
+    <t>Turdus pilaris</t>
+  </si>
+  <si>
+    <t>Leucophaeus pipixcan</t>
+  </si>
+  <si>
+    <t>Mareca strepera</t>
+  </si>
+  <si>
+    <t>Northern gannet</t>
+  </si>
+  <si>
+    <t>Morus bassanus</t>
+  </si>
+  <si>
+    <t>Plegadis falcinellus</t>
+  </si>
+  <si>
+    <t>Regulus regulus</t>
+  </si>
+  <si>
+    <t>Common goldeneye</t>
+  </si>
+  <si>
+    <t>Bucephala clangula</t>
+  </si>
+  <si>
+    <t>Dumetella carolinensis</t>
+  </si>
+  <si>
+    <t>Buteo nitidus</t>
+  </si>
+  <si>
+    <t>Larus marinus</t>
+  </si>
+  <si>
+    <t>Ardea herodias</t>
+  </si>
+  <si>
+    <t>Phalacrocorax carbo</t>
+  </si>
+  <si>
+    <t>Podiceps cristatus</t>
+  </si>
+  <si>
+    <t>Ardea alba</t>
+  </si>
+  <si>
+    <t>Podiceps major</t>
+  </si>
+  <si>
+    <t>Strix nebulosa</t>
+  </si>
+  <si>
+    <t>Lanius excubitor</t>
+  </si>
+  <si>
+    <t>Dendrocopos major</t>
+  </si>
+  <si>
+    <t>Crotophaga major</t>
+  </si>
+  <si>
+    <t>Phoenicopterus roseus</t>
+  </si>
+  <si>
+    <t>Aythya marila</t>
+  </si>
+  <si>
+    <t>Anser albifrons</t>
+  </si>
+  <si>
+    <t>Cathartes melambrotus</t>
+  </si>
+  <si>
+    <t>Tringa melanoleuca</t>
+  </si>
+  <si>
+    <t>Quiscalus mexicanus</t>
+  </si>
+  <si>
+    <t>Butorides virescen</t>
+  </si>
+  <si>
+    <t>Ardea cinerea</t>
+  </si>
+  <si>
+    <t>Perdix perdix</t>
+  </si>
+  <si>
+    <t>Motacilla cinerea</t>
+  </si>
+  <si>
+    <t>Leptotila rufaxilla</t>
+  </si>
+  <si>
+    <t>Chroicocephalus cirrocephalus</t>
+  </si>
+  <si>
+    <t>Anser anser</t>
+  </si>
+  <si>
+    <t>Crotophaga sulcirostris</t>
+  </si>
+  <si>
+    <t>Leucocarbo bougainvillii</t>
+  </si>
+  <si>
+    <t>Histrionicus histrionicus</t>
+  </si>
+  <si>
+    <t>Parabuteo unicinctus</t>
+  </si>
+  <si>
+    <t>Coccothraustes coccothraustes</t>
+  </si>
+  <si>
+    <t>Larus heermanni</t>
+  </si>
+  <si>
+    <t>Circus cyaneus</t>
+  </si>
+  <si>
+    <t>Opisthocomus hoazin</t>
+  </si>
+  <si>
+    <t>Corvus cornix</t>
+  </si>
+  <si>
+    <t>Spinus magellanicus</t>
+  </si>
+  <si>
+    <t>Eurasian hoopoe</t>
+  </si>
+  <si>
+    <t>Upupa epops</t>
+  </si>
+  <si>
+    <t>Podiceps auritus</t>
+  </si>
+  <si>
+    <t>Haemorhous mexicanus</t>
+  </si>
+  <si>
+    <t>Passer domesticus</t>
+  </si>
+  <si>
+    <t>Troglodytes aedon</t>
+  </si>
+  <si>
+    <t>Spheniscus humboldti</t>
+  </si>
+  <si>
+    <t>Cyanocorax yncas</t>
+  </si>
+  <si>
+    <t>Larosterna inca</t>
+  </si>
+  <si>
+    <t>Coloeus monedula</t>
+  </si>
+  <si>
+    <t>Eurasian jay</t>
+  </si>
+  <si>
+    <t>Garrulus glandarius</t>
+  </si>
+  <si>
+    <t>Ramphastos sulfuratus</t>
+  </si>
+  <si>
+    <t>Charadrius vociferus</t>
+  </si>
+  <si>
+    <t>Somateria spectabilis</t>
+  </si>
+  <si>
+    <t>Sarcoramphus papa</t>
+  </si>
+  <si>
+    <t>Ixobrychus exilis</t>
+  </si>
+  <si>
+    <t>Calidris minutilla</t>
+  </si>
+  <si>
+    <t>Spinus psaltria</t>
+  </si>
+  <si>
+    <t>Dryobates minor</t>
+  </si>
+  <si>
+    <t>Tringa flavipes</t>
+  </si>
+  <si>
+    <t>Dryocopus lineatus</t>
+  </si>
+  <si>
+    <t>Egretta caerulea</t>
+  </si>
+  <si>
+    <t>Tachybaptus ruficollis</t>
+  </si>
+  <si>
+    <t>Charadrius dubius</t>
+  </si>
+  <si>
+    <t>Sternula albifrons</t>
+  </si>
+  <si>
+    <t>Numenius americanus</t>
+  </si>
+  <si>
+    <t>Limnodromus scolopaceus</t>
+  </si>
+  <si>
+    <t>Asio otus</t>
+  </si>
+  <si>
+    <t>Mimus longicaudatus</t>
+  </si>
+  <si>
+    <t>Aegithalos caudatus</t>
+  </si>
+  <si>
+    <t>Fregata magnificens</t>
+  </si>
+  <si>
+    <t>Eurasian magpie</t>
+  </si>
+  <si>
+    <t>Pica pica</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Aix galericulata</t>
+  </si>
+  <si>
+    <t>Tachuris rubrigastra</t>
+  </si>
+  <si>
+    <t>Limosa fedoa</t>
+  </si>
+  <si>
+    <t>Poecile palustris</t>
+  </si>
+  <si>
+    <t>Acrocephalus palustris</t>
+  </si>
+  <si>
+    <t>Cistothorus palustris</t>
+  </si>
+  <si>
+    <t>Anthus pratensis</t>
+  </si>
+  <si>
+    <t>Goosander</t>
+  </si>
+  <si>
+    <t>Mergus merganser</t>
+  </si>
+  <si>
+    <t>Myiopsitta monachus</t>
+  </si>
+  <si>
+    <t>Zenaida macroura</t>
+  </si>
+  <si>
+    <t>Cygnus olor</t>
+  </si>
+  <si>
+    <t>Phalacrocorax brasilianus</t>
+  </si>
+  <si>
+    <t>Luscinia megarhynchos</t>
+  </si>
+  <si>
+    <t>Colaptes auratus</t>
+  </si>
+  <si>
+    <t>Fulmarus glacialis</t>
+  </si>
+  <si>
+    <t>Accipiter gentilis</t>
+  </si>
+  <si>
+    <t>Circus hudsonius</t>
+  </si>
+  <si>
+    <t>Surnia ulula</t>
+  </si>
+  <si>
+    <t>Vanellus vanellus</t>
+  </si>
+  <si>
+    <t>Mimus polyglottos</t>
+  </si>
+  <si>
+    <t>Oenanthe oenanthe</t>
+  </si>
+  <si>
+    <t>Baeolophus inornatus</t>
+  </si>
+  <si>
+    <t>Anser anser domesticus</t>
+  </si>
+  <si>
+    <t>Leiothlypis celata</t>
+  </si>
+  <si>
+    <t>Pandion haliaetus</t>
+  </si>
+  <si>
+    <t>Empidonax difficilis</t>
+  </si>
+  <si>
+    <t>Chaetura egregia</t>
+  </si>
+  <si>
+    <t>Patagioenas cayennensis</t>
+  </si>
+  <si>
+    <t>Setophaga palmarum</t>
+  </si>
+  <si>
+    <t>Myiarchus panamensis</t>
+  </si>
+  <si>
+    <t>Phalacrocorax pelagicus</t>
+  </si>
+  <si>
+    <t>Eurasian penduline tit</t>
+  </si>
+  <si>
+    <t>Remiz pendulinus</t>
+  </si>
+  <si>
+    <t>Falco peregrinus</t>
+  </si>
+  <si>
+    <t>Anthus lutescens</t>
+  </si>
+  <si>
+    <t>Sula variegata</t>
+  </si>
+  <si>
+    <t>Leistes bellicosus</t>
+  </si>
+  <si>
+    <t>Pelecanus thagus</t>
+  </si>
+  <si>
+    <t>Thaumastura cora</t>
+  </si>
+  <si>
+    <t>Burhinus superciliaris</t>
+  </si>
+  <si>
+    <t>Northern phainopepla</t>
+  </si>
+  <si>
+    <t>Phainopepla nitens</t>
+  </si>
+  <si>
+    <t>Recurvirostra avosetta</t>
+  </si>
+  <si>
+    <t>Ficedula hypoleuca</t>
+  </si>
+  <si>
+    <t>Podilymbus podiceps</t>
+  </si>
+  <si>
+    <t>Cepphus columba</t>
+  </si>
+  <si>
+    <t>Pinicola enucleator</t>
+  </si>
+  <si>
+    <t>Ardenna creatopus</t>
+  </si>
+  <si>
+    <t>Ictinia plumbea</t>
+  </si>
+  <si>
+    <t>Pardirallus sanguinolentus</t>
+  </si>
+  <si>
+    <t>Plegadis ridgwayi</t>
+  </si>
+  <si>
+    <t>Spatula puna</t>
+  </si>
+  <si>
+    <t>Purple gallinule</t>
+  </si>
+  <si>
+    <t>Western swamphen</t>
+  </si>
+  <si>
+    <t>Porphyrio porphyrio</t>
+  </si>
+  <si>
+    <t>Porphyrio martinicus</t>
+  </si>
+  <si>
+    <t>Querula purpurata</t>
+  </si>
+  <si>
+    <t>Sicalis raimondii</t>
+  </si>
+  <si>
+    <t>Milvus milvus</t>
+  </si>
+  <si>
+    <t>Ara chloropterus</t>
+  </si>
+  <si>
+    <t>Melanerpes carolinus</t>
+  </si>
+  <si>
+    <t>Mergus serrator</t>
+  </si>
+  <si>
+    <t>Falco vespertinus</t>
+  </si>
+  <si>
+    <t>Sarcogyps calvus</t>
+  </si>
+  <si>
+    <t>Rissa brevirostris</t>
+  </si>
+  <si>
+    <t>Psittacara erythrogenys</t>
+  </si>
+  <si>
+    <t>Buteo lineatus</t>
+  </si>
+  <si>
+    <t>Buteo jamaicensis</t>
+  </si>
+  <si>
+    <t>Gavia stellata</t>
+  </si>
+  <si>
+    <t>Turdus iliacus</t>
+  </si>
+  <si>
+    <t>Agelaius phoeniceus</t>
+  </si>
+  <si>
+    <t>Phasianus colchicus</t>
+  </si>
+  <si>
+    <t>Rupornis magnirostris</t>
+  </si>
+  <si>
+    <t>Erithacus rubecula</t>
+  </si>
+  <si>
+    <t>Corvus frugilegus</t>
+  </si>
+  <si>
+    <t>Platalea ajaja</t>
+  </si>
+  <si>
+    <t>Buteo lagopus</t>
+  </si>
+  <si>
+    <t>Oxyura jamaicensis</t>
+  </si>
+  <si>
+    <t>Arenaria interpres</t>
+  </si>
+  <si>
+    <t>Tigrisoma lineatum</t>
+  </si>
+  <si>
+    <t>Calidris pugnax</t>
+  </si>
+  <si>
+    <t>Zonotrichia capensis</t>
+  </si>
+  <si>
+    <t>Psarocolius angustifrons</t>
+  </si>
+  <si>
+    <t>Sicalis flaveola</t>
+  </si>
+  <si>
+    <t>Thalasseus sandvicensis</t>
+  </si>
+  <si>
+    <t>Passerculus sandwichensis</t>
+  </si>
+  <si>
+    <t>Dives warczewiczi</t>
+  </si>
+  <si>
+    <t>Acrocephalus schoenobaenus</t>
+  </si>
+  <si>
+    <t>Molothrus bonariensis</t>
+  </si>
+  <si>
+    <t>Asio flammeus</t>
+  </si>
+  <si>
+    <t>Northern shoveler</t>
+  </si>
+  <si>
+    <t>Spatula clypeata</t>
+  </si>
+  <si>
+    <t>Red-backed shrike</t>
+  </si>
+  <si>
+    <t>Lanius collurio</t>
+  </si>
+  <si>
+    <t>Ramphocelus carbo</t>
+  </si>
+  <si>
+    <t>Turdus philomelos</t>
+  </si>
+  <si>
+    <t>Trogon massena</t>
+  </si>
+  <si>
+    <t>Mergellus albellus</t>
+  </si>
+  <si>
+    <t>Crotophaga ani</t>
+  </si>
+  <si>
+    <t>Egretta thula</t>
+  </si>
+  <si>
+    <t>Bubo scandiacus</t>
+  </si>
+  <si>
+    <t>Myiozetetes similis</t>
+  </si>
+  <si>
+    <t>Melospiza melodia</t>
+  </si>
+  <si>
+    <t>Camptostoma obsoletum</t>
+  </si>
+  <si>
+    <t>Pyrocephalus rubinus obscurus</t>
+  </si>
+  <si>
+    <t>Penelope jacquacu</t>
+  </si>
+  <si>
+    <t>Sturnus unicolor</t>
+  </si>
+  <si>
+    <t>Muscicapa striata</t>
+  </si>
+  <si>
+    <t>Nucifraga caryocatactes</t>
+  </si>
+  <si>
+    <t>Actitis macularius</t>
+  </si>
+  <si>
+    <t>Pipilo maculatus</t>
+  </si>
+  <si>
+    <t>Piaya cayana</t>
+  </si>
+  <si>
+    <t>Sturnus vulgaris</t>
+  </si>
+  <si>
+    <t>Cyanocitta stelleri</t>
+  </si>
+  <si>
+    <t>Black-winged stilt</t>
+  </si>
+  <si>
+    <t>Himantopus himantopus</t>
+  </si>
+  <si>
+    <t>Columba oenas</t>
+  </si>
+  <si>
+    <t>Myiodynastes maculatus</t>
+  </si>
+  <si>
+    <t>Butorides striata</t>
+  </si>
+  <si>
+    <t>Myiodynastes luteiventris</t>
+  </si>
+  <si>
+    <t>Melanitta perspicillata</t>
+  </si>
+  <si>
+    <t>Catharus ustulatus</t>
+  </si>
+  <si>
+    <t>Elanoides forficatus</t>
+  </si>
+  <si>
+    <t>Melospiza georgiana</t>
+  </si>
+  <si>
+    <t>Anas platyrhynchos domesticus</t>
+  </si>
+  <si>
+    <t>Strix aluco</t>
+  </si>
+  <si>
+    <t>Galerida theklae</t>
+  </si>
+  <si>
+    <t>Campylorhynchus turdinus</t>
+  </si>
+  <si>
+    <t>Setophaga townsendi</t>
+  </si>
+  <si>
+    <t>Tachycineta bicolor</t>
+  </si>
+  <si>
+    <t>Egretta tricolor</t>
+  </si>
+  <si>
+    <t>Mimus gilvus</t>
+  </si>
+  <si>
+    <t>Icterus icterus</t>
+  </si>
+  <si>
+    <t>Aythya fuligula</t>
+  </si>
+  <si>
+    <t>Fratercula cirrhata</t>
+  </si>
+  <si>
+    <t>Cathartes aura</t>
+  </si>
+  <si>
+    <t>Loxia leucoptera</t>
+  </si>
+  <si>
+    <t>Strix uralensis</t>
+  </si>
+  <si>
+    <t>Geranoaetus polyosoma</t>
+  </si>
+  <si>
+    <t>Pyrocephalus obscurus</t>
+  </si>
+  <si>
+    <t>Cyanocorax violaceus</t>
+  </si>
+  <si>
+    <t>Rallus aquaticus</t>
+  </si>
+  <si>
+    <t>Sialia mexicana</t>
+  </si>
+  <si>
+    <t>Tetrao urogallus</t>
+  </si>
+  <si>
+    <t>Aechmophorus occidentalis</t>
+  </si>
+  <si>
+    <t>Larus occidentalis</t>
+  </si>
+  <si>
+    <t>Tyrannus verticalis</t>
+  </si>
+  <si>
+    <t>Circus aeruginosus</t>
+  </si>
+  <si>
+    <t>Aphelocoma californica</t>
+  </si>
+  <si>
+    <t>Motacilla flava</t>
+  </si>
+  <si>
+    <t>Zenaida meloda</t>
+  </si>
+  <si>
+    <t>Numenius hudsonicus</t>
+  </si>
+  <si>
+    <t>Saxicola rubetra</t>
+  </si>
+  <si>
+    <t>American white ibis</t>
+  </si>
+  <si>
+    <t>Eudocimus albus</t>
+  </si>
+  <si>
+    <t>Ciconia ciconia</t>
+  </si>
+  <si>
+    <t>Motacilla alba</t>
+  </si>
+  <si>
+    <t>Anas bahamensis</t>
+  </si>
+  <si>
+    <t>Zonotrichia leucophrys</t>
+  </si>
+  <si>
+    <t>Psittacara leucophthalmus</t>
+  </si>
+  <si>
+    <t>Plegadis chihi</t>
+  </si>
+  <si>
+    <t>Oxyura leucocephala</t>
+  </si>
+  <si>
+    <t>Calidris fuscicollis</t>
+  </si>
+  <si>
+    <t>Tachyphonus luctuosus</t>
+  </si>
+  <si>
+    <t>Haliaeetus albicilla</t>
+  </si>
+  <si>
+    <t>Elanus leucurus</t>
+  </si>
+  <si>
+    <t>Cinclus cinclus</t>
+  </si>
+  <si>
+    <t>Tachycineta albiventer</t>
+  </si>
+  <si>
+    <t>Cygnus cygnus</t>
+  </si>
+  <si>
+    <t>Eurasian widgeon</t>
+  </si>
+  <si>
+    <t>Meleagris gallopavo</t>
+  </si>
+  <si>
+    <t>Tringa semipalmata</t>
+  </si>
+  <si>
+    <t>Willow warbler</t>
+  </si>
+  <si>
+    <t>Phylloscopus trochilus</t>
+  </si>
+  <si>
+    <t>Poecile montanus</t>
+  </si>
+  <si>
+    <t>Phalaropus tricolor</t>
+  </si>
+  <si>
+    <t>Woodlark</t>
+  </si>
+  <si>
+    <t>Lullula arborea</t>
+  </si>
+  <si>
+    <t>Tringa glareola</t>
+  </si>
+  <si>
+    <t>Mycteria americana</t>
+  </si>
+  <si>
+    <t>Phleocryptes melanops</t>
+  </si>
+  <si>
+    <t>Nyctanassa violacea</t>
+  </si>
+  <si>
+    <t>Emberiza citrinella</t>
+  </si>
+  <si>
+    <t>Chrysomus icterocephalus</t>
+  </si>
+  <si>
+    <t>Tolmomyias assimilis</t>
+  </si>
+  <si>
+    <t>Cacicus cela</t>
+  </si>
+  <si>
+    <t>Setophaga coronata</t>
+  </si>
+  <si>
+    <t>Yellow-tufted woodpecker</t>
+  </si>
+  <si>
+    <t>Melanerpes cruentatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1968,16 +3072,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF3C4043"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2003,13 +3099,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2304,17 +3399,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:D411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2324,7 +3419,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2338,8 +3433,8 @@
       <c r="B2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>610</v>
+      <c r="C2" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="D2">
         <v>82</v>
@@ -2350,10 +3445,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>611</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>612</v>
+        <v>587</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="D3">
         <v>82</v>
@@ -2366,8 +3461,8 @@
       <c r="B4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>613</v>
+      <c r="C4" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="D4">
         <v>68</v>
@@ -2380,8 +3475,8 @@
       <c r="B5" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>614</v>
+      <c r="C5" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -2394,8 +3489,8 @@
       <c r="B6" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>615</v>
+      <c r="C6" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2408,8 +3503,8 @@
       <c r="B7" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>616</v>
+      <c r="C7" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="D7">
         <v>67</v>
@@ -2422,8 +3517,8 @@
       <c r="B8" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>617</v>
+      <c r="C8" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="D8">
         <v>22</v>
@@ -2436,8 +3531,8 @@
       <c r="B9" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>618</v>
+      <c r="C9" s="1" t="s">
+        <v>594</v>
       </c>
       <c r="D9">
         <v>27</v>
@@ -2450,8 +3545,8 @@
       <c r="B10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>619</v>
+      <c r="C10" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="D10">
         <v>33</v>
@@ -2464,8 +3559,8 @@
       <c r="B11" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>620</v>
+      <c r="C11" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="D11">
         <v>85</v>
@@ -2478,8 +3573,8 @@
       <c r="B12" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>621</v>
+      <c r="C12" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="D12">
         <v>51</v>
@@ -2492,8 +3587,8 @@
       <c r="B13" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>622</v>
+      <c r="C13" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="D13">
         <v>67</v>
@@ -2506,8 +3601,8 @@
       <c r="B14" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>623</v>
+      <c r="C14" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -2520,8 +3615,8 @@
       <c r="B15" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>624</v>
+      <c r="C15" s="1" t="s">
+        <v>600</v>
       </c>
       <c r="D15">
         <v>92</v>
@@ -2534,8 +3629,8 @@
       <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>625</v>
+      <c r="C16" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2548,8 +3643,8 @@
       <c r="B17" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>626</v>
+      <c r="C17" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="D17">
         <v>82</v>
@@ -2560,10 +3655,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>585</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>627</v>
+        <v>561</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="D18">
         <v>29</v>
@@ -2576,8 +3671,8 @@
       <c r="B19" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>628</v>
+      <c r="C19" s="1" t="s">
+        <v>604</v>
       </c>
       <c r="D19">
         <v>78</v>
@@ -2590,8 +3685,8 @@
       <c r="B20" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>629</v>
+      <c r="C20" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D20">
         <v>80</v>
@@ -2604,8 +3699,8 @@
       <c r="B21" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>630</v>
+      <c r="C21" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D21">
         <v>80</v>
@@ -2618,8 +3713,8 @@
       <c r="B22" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>631</v>
+      <c r="C22" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="D22">
         <v>80</v>
@@ -2632,8 +3727,8 @@
       <c r="B23" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>632</v>
+      <c r="C23" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -2646,8 +3741,8 @@
       <c r="B24" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>633</v>
+      <c r="C24" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="D24">
         <v>90</v>
@@ -2660,8 +3755,8 @@
       <c r="B25" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>634</v>
+      <c r="C25" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="D25">
         <v>34</v>
@@ -2674,8 +3769,8 @@
       <c r="B26" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>635</v>
+      <c r="C26" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -2688,8 +3783,8 @@
       <c r="B27" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>636</v>
+      <c r="C27" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="D27">
         <v>71</v>
@@ -2702,8 +3797,8 @@
       <c r="B28" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>637</v>
+      <c r="C28" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="D28">
         <v>93</v>
@@ -2716,8 +3811,8 @@
       <c r="B29" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>638</v>
+      <c r="C29" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="D29">
         <v>39</v>
@@ -2730,8 +3825,8 @@
       <c r="B30" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>639</v>
+      <c r="C30" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2744,8 +3839,8 @@
       <c r="B31" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>640</v>
+      <c r="C31" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="D31">
         <v>27</v>
@@ -2758,6 +3853,9 @@
       <c r="B32" t="s">
         <v>206</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>617</v>
+      </c>
       <c r="D32">
         <v>86</v>
       </c>
@@ -2769,6 +3867,9 @@
       <c r="B33" t="s">
         <v>207</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="D33">
         <v>42</v>
       </c>
@@ -2780,6 +3881,9 @@
       <c r="B34" t="s">
         <v>208</v>
       </c>
+      <c r="C34" s="3" t="s">
+        <v>619</v>
+      </c>
       <c r="D34">
         <v>39</v>
       </c>
@@ -2791,6 +3895,9 @@
       <c r="B35" t="s">
         <v>209</v>
       </c>
+      <c r="C35" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="D35">
         <v>39</v>
       </c>
@@ -2800,7 +3907,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>569</v>
+        <v>545</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="D36">
         <v>59</v>
@@ -2813,6 +3923,9 @@
       <c r="B37" t="s">
         <v>210</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="D37">
         <v>85</v>
       </c>
@@ -2822,7 +3935,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>624</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="D38">
         <v>85</v>
@@ -2833,7 +3949,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>625</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2844,7 +3963,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -2855,7 +3977,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="D41">
         <v>80</v>
@@ -2866,7 +3991,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="D42">
         <v>25</v>
@@ -2877,7 +4005,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="D43">
         <v>94</v>
@@ -2888,7 +4019,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -2899,7 +4033,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="D45">
         <v>39</v>
@@ -2910,7 +4047,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="D46">
         <v>68</v>
@@ -2921,7 +4061,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="D47">
         <v>71</v>
@@ -2932,7 +4075,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="D48">
         <v>84</v>
@@ -2943,7 +4089,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>635</v>
       </c>
       <c r="D49">
         <v>30</v>
@@ -2954,7 +4103,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="D50">
         <v>47</v>
@@ -2965,7 +4117,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="D51">
         <v>64</v>
@@ -2976,7 +4131,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>638</v>
       </c>
       <c r="D52">
         <v>80</v>
@@ -2987,7 +4145,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="D53">
         <v>61</v>
@@ -2998,7 +4159,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="D54">
         <v>80</v>
@@ -3009,7 +4173,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="D55">
         <v>82</v>
@@ -3020,7 +4187,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="D56">
         <v>42</v>
@@ -3031,7 +4201,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -3042,7 +4212,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="D58">
         <v>36</v>
@@ -3053,7 +4226,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -3064,7 +4240,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3075,7 +4254,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="D61">
         <v>29</v>
@@ -3086,7 +4268,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -3097,7 +4282,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="D63">
         <v>36</v>
@@ -3108,7 +4296,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3119,7 +4310,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="D65">
         <v>51</v>
@@ -3130,7 +4324,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="D66">
         <v>36</v>
@@ -3141,7 +4338,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -3152,7 +4352,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="D68">
         <v>75</v>
@@ -3163,7 +4366,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="D69">
         <v>39</v>
@@ -3174,7 +4380,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="D70">
         <v>43</v>
@@ -3185,7 +4394,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="D71">
         <v>49</v>
@@ -3196,7 +4408,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -3207,7 +4422,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -3218,7 +4436,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="D74">
         <v>36</v>
@@ -3229,7 +4450,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="D75">
         <v>39</v>
@@ -3240,7 +4464,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -3251,7 +4478,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="D77">
         <v>47</v>
@@ -3262,7 +4492,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="D78">
         <v>64</v>
@@ -3273,7 +4506,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>664</v>
       </c>
       <c r="D79">
         <v>80</v>
@@ -3284,7 +4520,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="D80">
         <v>80</v>
@@ -3295,7 +4534,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -3306,7 +4548,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="D82">
         <v>60</v>
@@ -3317,7 +4562,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="D83">
         <v>49</v>
@@ -3328,7 +4576,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="D84">
         <v>47</v>
@@ -3339,7 +4590,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="D85">
         <v>91</v>
@@ -3350,7 +4604,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="D86">
         <v>64</v>
@@ -3361,7 +4618,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3372,7 +4632,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>673</v>
       </c>
       <c r="D88">
         <v>29</v>
@@ -3383,7 +4646,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="D89">
         <v>58</v>
@@ -3394,7 +4660,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="D90">
         <v>24</v>
@@ -3405,7 +4674,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -3416,7 +4688,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="D92">
         <v>69</v>
@@ -3427,7 +4702,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="D93">
         <v>71</v>
@@ -3438,7 +4716,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="D94">
         <v>21</v>
@@ -3449,7 +4730,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="D95">
         <v>39</v>
@@ -3460,7 +4744,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>681</v>
       </c>
       <c r="D96">
         <v>27</v>
@@ -3471,7 +4758,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="D97">
         <v>29</v>
@@ -3482,7 +4772,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="D98">
         <v>30</v>
@@ -3493,7 +4786,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="D99">
         <v>67</v>
@@ -3504,7 +4800,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -3515,7 +4814,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -3526,7 +4828,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="D102">
         <v>22</v>
@@ -3537,7 +4842,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="D103">
         <v>29</v>
@@ -3548,7 +4856,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="D104">
         <v>71</v>
@@ -3559,7 +4870,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="D105">
         <v>42</v>
@@ -3570,7 +4884,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D106">
         <v>26</v>
@@ -3581,7 +4898,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="D107">
         <v>18</v>
@@ -3592,7 +4912,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="D108">
         <v>71</v>
@@ -3603,7 +4926,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -3614,7 +4940,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="D110">
         <v>71</v>
@@ -3625,7 +4954,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -3636,7 +4968,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>697</v>
       </c>
       <c r="D112">
         <v>39</v>
@@ -3647,7 +4982,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="D113">
         <v>21</v>
@@ -3658,7 +4996,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>593</v>
+        <v>569</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -3669,10 +5010,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>287</v>
+        <v>570</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="D115">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3680,10 +5024,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>594</v>
+        <v>286</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>701</v>
       </c>
       <c r="D116">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3691,10 +5038,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3702,10 +5052,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="D118">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3713,10 +5066,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>290</v>
+        <v>704</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>705</v>
       </c>
       <c r="D119">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3724,10 +5080,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D120">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3735,10 +5091,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3746,10 +5105,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="D122">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3757,10 +5119,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>292</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="D123">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3768,10 +5133,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="D124">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3779,10 +5147,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>294</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="D125">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3790,10 +5161,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="D126">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3801,10 +5175,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="D127">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3812,10 +5189,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="D128">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3823,10 +5203,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="D129">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3834,10 +5217,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="D130">
-        <v>86</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3845,10 +5231,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="D131">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3856,10 +5245,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>303</v>
+        <v>301</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3867,10 +5259,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="D133">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3878,10 +5273,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="D134">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3889,10 +5287,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="D135">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3900,10 +5301,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="D136">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3911,10 +5315,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="D137">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3922,10 +5329,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>723</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3933,10 +5343,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="D139">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3944,10 +5357,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="D140">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3955,10 +5371,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="D141">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3966,10 +5385,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="D142">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3977,10 +5399,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3988,7 +5413,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -3999,10 +5427,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="D145">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4010,10 +5441,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="D146">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4021,10 +5455,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>318</v>
+        <v>316</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>732</v>
       </c>
       <c r="D147">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4032,10 +5469,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="D148">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4043,10 +5483,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>320</v>
+        <v>554</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="D149">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4054,10 +5497,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>735</v>
       </c>
       <c r="D150">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4065,10 +5511,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>578</v>
+        <v>319</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="D151">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4076,10 +5525,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="D152">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4087,10 +5539,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>738</v>
       </c>
       <c r="D153">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4098,10 +5553,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4109,10 +5567,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="D155">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4120,10 +5581,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="D156">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4131,10 +5595,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>327</v>
+        <v>325</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="D157">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4142,10 +5609,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>328</v>
+        <v>743</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="D158">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4153,10 +5623,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4164,10 +5637,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="D160">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4175,10 +5651,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>331</v>
+        <v>747</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="D161">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4186,10 +5665,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="D162">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4197,10 +5679,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="D163">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4208,10 +5693,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="D164">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,10 +5707,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>335</v>
+        <v>331</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4230,10 +5721,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="D166">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4241,10 +5735,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>333</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4252,10 +5749,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="D168">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4263,7 +5763,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="D169">
         <v>60</v>
@@ -4274,10 +5777,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>336</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4285,10 +5791,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="D171">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4296,10 +5805,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>338</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="D172">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4307,10 +5819,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="D173">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4318,10 +5833,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="D174">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4329,10 +5847,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>762</v>
       </c>
       <c r="D175">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4340,10 +5861,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>763</v>
       </c>
       <c r="D176">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4351,10 +5875,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4362,10 +5889,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>348</v>
+        <v>344</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4373,10 +5903,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>349</v>
+        <v>345</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="D179">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4384,10 +5917,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>350</v>
+        <v>346</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="D180">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4395,10 +5931,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="D181">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4406,10 +5945,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>769</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4417,10 +5959,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4428,10 +5973,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>354</v>
+        <v>350</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="D184">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4439,10 +5987,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>355</v>
+        <v>351</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="D185">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4450,10 +6001,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>356</v>
+        <v>352</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="D186">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4461,10 +6015,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>357</v>
+        <v>353</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="D187">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4472,10 +6029,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>358</v>
+        <v>354</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>775</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4483,10 +6043,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>776</v>
       </c>
       <c r="D189">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4494,10 +6057,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>360</v>
+        <v>356</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="D190">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4505,10 +6071,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>357</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4516,10 +6085,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>362</v>
+        <v>358</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4527,10 +6099,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>359</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="D193">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4538,7 +6113,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>364</v>
+        <v>319</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>736</v>
       </c>
       <c r="D194">
         <v>39</v>
@@ -4549,10 +6127,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>781</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4560,10 +6141,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>366</v>
+        <v>361</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="D196">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4571,10 +6155,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="D197">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4582,10 +6169,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>368</v>
+        <v>784</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="D198">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4593,10 +6183,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>369</v>
+        <v>363</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="D199">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4604,10 +6197,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>370</v>
+        <v>364</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="D200">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4615,10 +6211,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>371</v>
+        <v>365</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="D201">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4626,10 +6225,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>372</v>
+        <v>366</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="D202">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4637,10 +6239,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>373</v>
+        <v>367</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="D203">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4648,10 +6253,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>791</v>
       </c>
       <c r="D204">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4659,10 +6267,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>375</v>
+        <v>369</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>792</v>
       </c>
       <c r="D205">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4670,7 +6281,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>376</v>
+        <v>370</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>793</v>
       </c>
       <c r="D206">
         <v>22</v>
@@ -4681,10 +6295,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>377</v>
+        <v>794</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="D207">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4692,10 +6309,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>378</v>
+        <v>371</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="D208">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4703,10 +6323,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>379</v>
+        <v>372</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="D209">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4714,10 +6337,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>380</v>
+        <v>373</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="D210">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4725,10 +6351,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>381</v>
+        <v>374</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="D211">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4736,10 +6365,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>382</v>
+        <v>375</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>800</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4747,10 +6379,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>383</v>
+        <v>376</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4758,10 +6393,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>384</v>
+        <v>377</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>802</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4769,10 +6407,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>803</v>
       </c>
       <c r="D215">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4780,10 +6421,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>386</v>
+        <v>379</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>804</v>
       </c>
       <c r="D216">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4791,7 +6435,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>387</v>
+        <v>380</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>805</v>
       </c>
       <c r="D217">
         <v>59</v>
@@ -4802,10 +6449,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>388</v>
+        <v>381</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="D218">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4813,10 +6463,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>389</v>
+        <v>382</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="D219">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4824,10 +6477,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>390</v>
+        <v>579</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4835,10 +6491,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>391</v>
+        <v>383</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>809</v>
       </c>
       <c r="D221">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4846,10 +6505,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>603</v>
+        <v>384</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="D222">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4857,10 +6519,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>392</v>
+        <v>385</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="D223">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4868,10 +6533,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>393</v>
+        <v>386</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="D224">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4879,10 +6547,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>394</v>
+        <v>387</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>813</v>
       </c>
       <c r="D225">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4890,10 +6561,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>395</v>
+        <v>388</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="D226">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4901,10 +6575,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>396</v>
+        <v>389</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="D227">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4912,10 +6589,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>397</v>
+        <v>816</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4923,10 +6603,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>398</v>
+        <v>390</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>818</v>
       </c>
       <c r="D229">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4934,10 +6617,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>399</v>
+        <v>391</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="D230">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4945,10 +6631,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>400</v>
+        <v>392</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4956,10 +6645,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4967,10 +6659,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>402</v>
+        <v>394</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="D233">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4978,10 +6673,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>823</v>
       </c>
       <c r="D234">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4989,10 +6687,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>404</v>
+        <v>396</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>824</v>
       </c>
       <c r="D235">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5000,10 +6701,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>405</v>
+        <v>397</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="D236">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5011,10 +6715,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>406</v>
+        <v>826</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="D237">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5022,10 +6729,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>407</v>
+        <v>398</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>828</v>
       </c>
       <c r="D238">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5033,10 +6743,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>408</v>
+        <v>399</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="D239">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5044,10 +6757,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>409</v>
+        <v>400</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="D240">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5055,10 +6771,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>410</v>
+        <v>401</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="D241">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5066,10 +6785,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>411</v>
+        <v>402</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5077,10 +6799,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>412</v>
+        <v>403</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>833</v>
       </c>
       <c r="D243">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5088,10 +6813,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>413</v>
+        <v>404</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="D244">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5099,10 +6827,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>414</v>
+        <v>405</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="D245">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5110,10 +6841,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="D246">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5121,10 +6855,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>416</v>
+        <v>407</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5132,10 +6869,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>417</v>
+        <v>408</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5143,10 +6883,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="D249">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5154,10 +6897,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>419</v>
+        <v>410</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="D250">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5165,10 +6911,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>420</v>
+        <v>411</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="D251">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5176,10 +6925,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>421</v>
+        <v>412</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="D252">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5187,10 +6939,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>422</v>
+        <v>585</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="D253">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5198,10 +6953,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="D254">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5209,10 +6967,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>609</v>
+        <v>136</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>844</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5220,10 +6981,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>424</v>
+        <v>414</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D256">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5231,10 +6995,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>136</v>
+        <v>415</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>846</v>
       </c>
       <c r="D257">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5242,10 +7009,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="D258">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5253,10 +7023,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>426</v>
+        <v>417</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="D259">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5264,10 +7037,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>427</v>
+        <v>564</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="D260">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5275,10 +7051,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>428</v>
+        <v>418</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D261">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5286,10 +7065,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>588</v>
+        <v>851</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>852</v>
       </c>
       <c r="D262">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5297,10 +7079,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>429</v>
+        <v>419</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="D263">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5308,10 +7093,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>430</v>
+        <v>580</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="D264">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5319,10 +7107,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>431</v>
+        <v>420</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="D265">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5330,10 +7121,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>604</v>
+        <v>421</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="D266">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5341,10 +7135,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>432</v>
+        <v>422</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="D267">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5352,10 +7149,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>433</v>
+        <v>423</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="D268">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5363,10 +7163,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>434</v>
+        <v>424</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="D269">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5374,10 +7177,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>435</v>
+        <v>860</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="D270">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5385,10 +7191,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>436</v>
+        <v>425</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="D271">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5396,10 +7205,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>437</v>
+        <v>565</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>863</v>
       </c>
       <c r="D272">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5407,10 +7219,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>438</v>
+        <v>426</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="D273">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5418,10 +7233,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>589</v>
+        <v>427</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="D274">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5429,10 +7247,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>439</v>
+        <v>428</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="D275">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5440,10 +7261,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>440</v>
+        <v>429</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5451,10 +7275,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>441</v>
+        <v>430</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="D277">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5462,10 +7289,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>442</v>
+        <v>431</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="D278">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5473,10 +7303,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>443</v>
+        <v>432</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>870</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5484,10 +7317,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>444</v>
+        <v>433</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="D280">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5495,10 +7331,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>445</v>
+        <v>872</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="D281">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5506,10 +7345,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>446</v>
+        <v>873</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="D282">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5517,10 +7359,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>447</v>
+        <v>434</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="D283">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5528,10 +7373,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>448</v>
+        <v>555</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>877</v>
       </c>
       <c r="D284">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5539,10 +7387,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>449</v>
+        <v>435</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="D285">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5550,10 +7401,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>579</v>
+        <v>436</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>879</v>
       </c>
       <c r="D286">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5561,10 +7415,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>450</v>
+        <v>437</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>880</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5572,10 +7429,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>451</v>
+        <v>438</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>881</v>
       </c>
       <c r="D288">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5583,10 +7443,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>452</v>
+        <v>439</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="D289">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5594,10 +7457,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>453</v>
+        <v>440</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="D290">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5605,10 +7471,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>454</v>
+        <v>441</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>884</v>
       </c>
       <c r="D291">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5616,10 +7485,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>455</v>
+        <v>442</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>885</v>
       </c>
       <c r="D292">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5627,10 +7499,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>456</v>
+        <v>443</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="D293">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5638,10 +7513,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>457</v>
+        <v>444</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="D294">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5649,10 +7527,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>458</v>
+        <v>445</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5660,10 +7541,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>459</v>
+        <v>446</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5671,10 +7555,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>460</v>
+        <v>447</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>890</v>
       </c>
       <c r="D297">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5682,10 +7569,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>461</v>
+        <v>448</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="D298">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5693,10 +7583,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>462</v>
+        <v>449</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="D299">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5704,10 +7597,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>463</v>
+        <v>558</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>893</v>
       </c>
       <c r="D300">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5715,10 +7611,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>464</v>
+        <v>450</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5726,10 +7625,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>582</v>
+        <v>451</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>895</v>
       </c>
       <c r="D302">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5737,10 +7639,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>465</v>
+        <v>452</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="D303">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5748,10 +7653,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="D304">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5759,10 +7667,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>467</v>
+        <v>454</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5770,10 +7681,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>468</v>
+        <v>455</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>899</v>
       </c>
       <c r="D306">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5781,7 +7695,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>469</v>
+        <v>456</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>900</v>
       </c>
       <c r="D307">
         <v>71</v>
@@ -5792,10 +7709,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>470</v>
+        <v>457</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="D308">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5803,10 +7723,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>471</v>
+        <v>458</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="D309">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5814,10 +7737,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>472</v>
+        <v>459</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="D310">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5825,10 +7751,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>473</v>
+        <v>460</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="D311">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5836,10 +7765,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>474</v>
+        <v>461</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="D312">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5847,10 +7779,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>475</v>
+        <v>462</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="D313">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5858,10 +7793,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>476</v>
+        <v>463</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>907</v>
       </c>
       <c r="D314">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5869,7 +7807,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>477</v>
+        <v>464</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="D315">
         <v>36</v>
@@ -5880,10 +7821,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>478</v>
+        <v>465</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>909</v>
       </c>
       <c r="D316">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5891,10 +7835,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>479</v>
+        <v>910</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="D317">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5902,10 +7849,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>480</v>
+        <v>912</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>913</v>
       </c>
       <c r="D318">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5913,10 +7863,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>481</v>
+        <v>466</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="D319">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5924,10 +7877,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>482</v>
+        <v>546</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="D320">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5935,10 +7891,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>483</v>
+        <v>467</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="D321">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5946,10 +7905,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>570</v>
+        <v>468</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="D322">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5957,10 +7919,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>484</v>
+        <v>469</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="D323">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5968,10 +7933,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>485</v>
+        <v>470</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="D324">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5979,10 +7947,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>486</v>
+        <v>471</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="D325">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5990,10 +7961,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>487</v>
+        <v>472</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="D326">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6001,10 +7975,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>488</v>
+        <v>473</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>921</v>
       </c>
       <c r="D327">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6012,10 +7989,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>489</v>
+        <v>474</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="D328">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6023,7 +8003,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>490</v>
+        <v>475</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>924</v>
       </c>
       <c r="D329">
         <v>86</v>
@@ -6034,10 +8017,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>491</v>
+        <v>476</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="D330">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6045,10 +8031,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>492</v>
+        <v>477</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>925</v>
       </c>
       <c r="D331">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6056,10 +8045,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>493</v>
+        <v>478</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="D332">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6067,10 +8059,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>494</v>
+        <v>479</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="D333">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6078,10 +8073,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>495</v>
+        <v>480</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="D334">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6089,10 +8087,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>496</v>
+        <v>481</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="D335">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6100,10 +8101,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>482</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="D336">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6111,10 +8115,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>498</v>
+        <v>483</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>931</v>
       </c>
       <c r="D337">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6122,10 +8129,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>499</v>
+        <v>581</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="D338">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6133,10 +8143,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>500</v>
+        <v>484</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>933</v>
       </c>
       <c r="D339">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6144,10 +8157,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>605</v>
+        <v>934</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>935</v>
       </c>
       <c r="D340">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6155,10 +8171,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>501</v>
+        <v>485</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="D341">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6166,10 +8185,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>502</v>
+        <v>486</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="D342">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6177,10 +8199,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>503</v>
+        <v>487</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="D343">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6188,7 +8213,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>504</v>
+        <v>488</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>939</v>
       </c>
       <c r="D344">
         <v>86</v>
@@ -6199,10 +8227,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>505</v>
+        <v>548</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="D345">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6210,10 +8241,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>506</v>
+        <v>489</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="D346">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6221,10 +8255,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>572</v>
+        <v>490</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="D347">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6232,10 +8269,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>507</v>
+        <v>491</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="D348">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6243,10 +8283,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>508</v>
+        <v>492</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>944</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6254,10 +8297,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>509</v>
+        <v>493</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>945</v>
       </c>
       <c r="D350">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6265,10 +8311,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>510</v>
+        <v>494</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="D351">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6276,10 +8325,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>511</v>
+        <v>495</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="D352">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6287,10 +8339,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>512</v>
+        <v>496</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6298,10 +8353,13 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>513</v>
+        <v>497</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="D354">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6309,10 +8367,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>514</v>
+        <v>498</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="D355">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6320,10 +8381,13 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>515</v>
+        <v>499</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="D356">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6331,10 +8395,13 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>516</v>
+        <v>582</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="D357">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6342,10 +8409,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>517</v>
+        <v>500</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>953</v>
       </c>
       <c r="D358">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6353,10 +8423,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>606</v>
+        <v>501</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>954</v>
       </c>
       <c r="D359">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6364,10 +8437,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>518</v>
+        <v>502</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>955</v>
       </c>
       <c r="D360">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6375,10 +8451,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>519</v>
+        <v>503</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>956</v>
       </c>
       <c r="D361">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6386,10 +8465,13 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>520</v>
+        <v>504</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>957</v>
       </c>
       <c r="D362">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6397,10 +8479,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>521</v>
+        <v>505</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>958</v>
       </c>
       <c r="D363">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6408,10 +8493,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>522</v>
+        <v>506</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>959</v>
       </c>
       <c r="D364">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6419,10 +8507,13 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>523</v>
+        <v>507</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6430,10 +8521,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>524</v>
+        <v>508</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="D366">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6441,10 +8535,13 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>525</v>
+        <v>509</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="D367">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6452,10 +8549,13 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>526</v>
+        <v>510</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>963</v>
       </c>
       <c r="D368">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6463,10 +8563,13 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>527</v>
+        <v>511</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>964</v>
       </c>
       <c r="D369">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6474,10 +8577,13 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>528</v>
+        <v>512</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>965</v>
       </c>
       <c r="D370">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6485,10 +8591,13 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>529</v>
+        <v>513</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>966</v>
       </c>
       <c r="D371">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6496,10 +8605,13 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>530</v>
+        <v>514</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>967</v>
       </c>
       <c r="D372">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6507,10 +8619,13 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>531</v>
+        <v>553</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>968</v>
       </c>
       <c r="D373">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6518,10 +8633,13 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>532</v>
+        <v>515</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>969</v>
       </c>
       <c r="D374">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6529,10 +8647,13 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>577</v>
+        <v>516</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="D375">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6540,10 +8661,13 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>533</v>
+        <v>583</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>971</v>
       </c>
       <c r="D376">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6551,10 +8675,13 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>534</v>
+        <v>517</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>972</v>
       </c>
       <c r="D377">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6562,10 +8689,13 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>607</v>
+        <v>585</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>842</v>
       </c>
       <c r="D378">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6573,10 +8703,13 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>535</v>
+        <v>973</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>974</v>
       </c>
       <c r="D379">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -6584,10 +8717,13 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>536</v>
+        <v>518</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>975</v>
       </c>
       <c r="D380">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -6595,10 +8731,13 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>537</v>
+        <v>519</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>976</v>
       </c>
       <c r="D381">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -6606,10 +8745,13 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>538</v>
+        <v>520</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>977</v>
       </c>
       <c r="D382">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -6617,10 +8759,13 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>539</v>
+        <v>521</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>978</v>
       </c>
       <c r="D383">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -6628,10 +8773,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>540</v>
+        <v>522</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="D384">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -6639,10 +8787,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>541</v>
+        <v>523</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>980</v>
       </c>
       <c r="D385">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -6650,10 +8801,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>542</v>
+        <v>524</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="D386">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -6661,10 +8815,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>543</v>
+        <v>525</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>982</v>
       </c>
       <c r="D387">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -6672,10 +8829,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>544</v>
+        <v>526</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>983</v>
       </c>
       <c r="D388">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -6683,10 +8843,13 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>545</v>
+        <v>527</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>984</v>
       </c>
       <c r="D389">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6694,10 +8857,13 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>546</v>
+        <v>528</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>985</v>
       </c>
       <c r="D390">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -6705,10 +8871,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>547</v>
+        <v>529</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>986</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -6716,10 +8885,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>548</v>
+        <v>530</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>987</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -6727,10 +8899,13 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>549</v>
+        <v>531</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>988</v>
       </c>
       <c r="D393">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6738,10 +8913,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>550</v>
+        <v>989</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="D394">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -6749,10 +8927,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>551</v>
+        <v>532</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>990</v>
       </c>
       <c r="D395">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -6760,10 +8941,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>552</v>
+        <v>533</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>991</v>
       </c>
       <c r="D396">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -6771,10 +8955,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>553</v>
+        <v>992</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>993</v>
       </c>
       <c r="D397">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -6782,10 +8969,13 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>554</v>
+        <v>534</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>994</v>
       </c>
       <c r="D398">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -6793,10 +8983,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>555</v>
+        <v>535</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>995</v>
       </c>
       <c r="D399">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -6804,10 +8997,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>556</v>
+        <v>996</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>997</v>
       </c>
       <c r="D400">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -6815,7 +9011,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>557</v>
+        <v>536</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>998</v>
       </c>
       <c r="D401">
         <v>71</v>
@@ -6826,10 +9025,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>558</v>
+        <v>537</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>999</v>
       </c>
       <c r="D402">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6837,10 +9039,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>559</v>
+        <v>538</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1000</v>
       </c>
       <c r="D403">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6848,10 +9053,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>560</v>
+        <v>584</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>969</v>
       </c>
       <c r="D404">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6859,10 +9067,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>561</v>
+        <v>539</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1001</v>
       </c>
       <c r="D405">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6870,10 +9081,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>608</v>
+        <v>540</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>1002</v>
       </c>
       <c r="D406">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6881,10 +9095,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>562</v>
+        <v>541</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1003</v>
       </c>
       <c r="D407">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6892,10 +9109,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>563</v>
+        <v>542</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1004</v>
       </c>
       <c r="D408">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6903,7 +9123,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>564</v>
+        <v>543</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1005</v>
       </c>
       <c r="D409">
         <v>36</v>
@@ -6914,10 +9137,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>565</v>
+        <v>544</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1006</v>
       </c>
       <c r="D410">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6925,36 +9151,18 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>566</v>
+        <v>1007</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1008</v>
       </c>
       <c r="D411">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412">
-        <v>411</v>
-      </c>
-      <c r="B412" t="s">
-        <v>567</v>
-      </c>
-      <c r="D412">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413">
-        <v>412</v>
-      </c>
-      <c r="B413" t="s">
-        <v>568</v>
-      </c>
-      <c r="D413">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6976,7 +9184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -7003,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -7465,7 +9673,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="C44" t="s">
         <v>108</v>
@@ -7971,10 +10179,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7982,10 +10190,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C91" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7993,10 +10201,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C92" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8004,10 +10212,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C93" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -8015,10 +10223,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8026,10 +10234,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -8037,10 +10245,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8048,10 +10256,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8059,10 +10267,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8070,10 +10278,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/Extras/AvesTables.xlsx
+++ b/Extras/AvesTables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1008">
   <si>
     <t>Id</t>
   </si>
@@ -1248,9 +1248,6 @@
     <t>Northern mockingbird</t>
   </si>
   <si>
-    <t>Northern raven</t>
-  </si>
-  <si>
     <t>Northern wheatear</t>
   </si>
   <si>
@@ -1692,9 +1689,6 @@
     <t>Ovenbirds</t>
   </si>
   <si>
-    <t>European Robin</t>
-  </si>
-  <si>
     <t>Tinamous</t>
   </si>
   <si>
@@ -1764,15 +1758,6 @@
     <t>Common Starling</t>
   </si>
   <si>
-    <t>Venezuelan Troupial</t>
-  </si>
-  <si>
-    <t>Hudsonian Whimbrel</t>
-  </si>
-  <si>
-    <t>Western Yellow wagtail</t>
-  </si>
-  <si>
     <t>Domestic goose</t>
   </si>
   <si>
@@ -3043,6 +3028,18 @@
   </si>
   <si>
     <t>Melanerpes cruentatus</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>European robin</t>
+  </si>
+  <si>
+    <t>Venezuelan troupial</t>
+  </si>
+  <si>
+    <t>Hudsonian whimbrel</t>
   </si>
 </sst>
 </file>
@@ -3399,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D411"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3434,7 +3431,7 @@
         <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D2">
         <v>82</v>
@@ -3445,10 +3442,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D3">
         <v>82</v>
@@ -3462,7 +3459,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D4">
         <v>68</v>
@@ -3476,7 +3473,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -3490,7 +3487,7 @@
         <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3504,7 +3501,7 @@
         <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D7">
         <v>67</v>
@@ -3518,7 +3515,7 @@
         <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D8">
         <v>22</v>
@@ -3532,7 +3529,7 @@
         <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D9">
         <v>27</v>
@@ -3546,7 +3543,7 @@
         <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D10">
         <v>33</v>
@@ -3560,7 +3557,7 @@
         <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D11">
         <v>85</v>
@@ -3574,7 +3571,7 @@
         <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D12">
         <v>51</v>
@@ -3588,7 +3585,7 @@
         <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D13">
         <v>67</v>
@@ -3602,7 +3599,7 @@
         <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3616,7 +3613,7 @@
         <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D15">
         <v>92</v>
@@ -3630,7 +3627,7 @@
         <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -3644,7 +3641,7 @@
         <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D17">
         <v>82</v>
@@ -3655,10 +3652,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D18">
         <v>29</v>
@@ -3672,7 +3669,7 @@
         <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D19">
         <v>78</v>
@@ -3686,7 +3683,7 @@
         <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D20">
         <v>80</v>
@@ -3700,7 +3697,7 @@
         <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D21">
         <v>80</v>
@@ -3714,7 +3711,7 @@
         <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D22">
         <v>80</v>
@@ -3728,7 +3725,7 @@
         <v>197</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -3742,7 +3739,7 @@
         <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D24">
         <v>90</v>
@@ -3756,7 +3753,7 @@
         <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D25">
         <v>34</v>
@@ -3770,7 +3767,7 @@
         <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -3784,7 +3781,7 @@
         <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D27">
         <v>71</v>
@@ -3798,7 +3795,7 @@
         <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D28">
         <v>93</v>
@@ -3812,7 +3809,7 @@
         <v>203</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D29">
         <v>39</v>
@@ -3826,7 +3823,7 @@
         <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -3840,7 +3837,7 @@
         <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D31">
         <v>27</v>
@@ -3854,7 +3851,7 @@
         <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D32">
         <v>86</v>
@@ -3868,7 +3865,7 @@
         <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D33">
         <v>42</v>
@@ -3882,7 +3879,7 @@
         <v>208</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D34">
         <v>39</v>
@@ -3896,7 +3893,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D35">
         <v>39</v>
@@ -3907,10 +3904,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D36">
         <v>59</v>
@@ -3924,7 +3921,7 @@
         <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D37">
         <v>85</v>
@@ -3935,10 +3932,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D38">
         <v>85</v>
@@ -3952,7 +3949,7 @@
         <v>211</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3966,7 +3963,7 @@
         <v>212</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -3980,7 +3977,7 @@
         <v>213</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D41">
         <v>80</v>
@@ -3994,7 +3991,7 @@
         <v>214</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D42">
         <v>25</v>
@@ -4008,7 +4005,7 @@
         <v>215</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D43">
         <v>94</v>
@@ -4022,7 +4019,7 @@
         <v>216</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -4036,7 +4033,7 @@
         <v>217</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D45">
         <v>39</v>
@@ -4050,7 +4047,7 @@
         <v>218</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D46">
         <v>68</v>
@@ -4064,7 +4061,7 @@
         <v>219</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D47">
         <v>71</v>
@@ -4078,7 +4075,7 @@
         <v>220</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D48">
         <v>84</v>
@@ -4092,7 +4089,7 @@
         <v>221</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D49">
         <v>30</v>
@@ -4106,7 +4103,7 @@
         <v>222</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D50">
         <v>47</v>
@@ -4120,7 +4117,7 @@
         <v>223</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D51">
         <v>64</v>
@@ -4134,7 +4131,7 @@
         <v>224</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D52">
         <v>80</v>
@@ -4148,7 +4145,7 @@
         <v>225</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D53">
         <v>61</v>
@@ -4162,7 +4159,7 @@
         <v>226</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D54">
         <v>80</v>
@@ -4176,7 +4173,7 @@
         <v>227</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D55">
         <v>82</v>
@@ -4190,7 +4187,7 @@
         <v>228</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D56">
         <v>42</v>
@@ -4203,6 +4200,9 @@
       <c r="B57" t="s">
         <v>229</v>
       </c>
+      <c r="C57" s="1" t="s">
+        <v>1004</v>
+      </c>
       <c r="D57">
         <v>6</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D58">
         <v>36</v>
@@ -4229,7 +4229,7 @@
         <v>231</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D59">
         <v>11</v>
@@ -4243,7 +4243,7 @@
         <v>232</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>233</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D61">
         <v>29</v>
@@ -4271,7 +4271,7 @@
         <v>234</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -4285,7 +4285,7 @@
         <v>235</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D63">
         <v>36</v>
@@ -4299,7 +4299,7 @@
         <v>236</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>237</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D65">
         <v>51</v>
@@ -4327,7 +4327,7 @@
         <v>238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D66">
         <v>36</v>
@@ -4341,7 +4341,7 @@
         <v>239</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -4355,7 +4355,7 @@
         <v>240</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D68">
         <v>75</v>
@@ -4369,7 +4369,7 @@
         <v>241</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D69">
         <v>39</v>
@@ -4383,7 +4383,7 @@
         <v>242</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D70">
         <v>43</v>
@@ -4397,7 +4397,7 @@
         <v>243</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D71">
         <v>49</v>
@@ -4411,7 +4411,7 @@
         <v>244</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D72">
         <v>6</v>
@@ -4425,7 +4425,7 @@
         <v>245</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D73">
         <v>10</v>
@@ -4439,7 +4439,7 @@
         <v>246</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D74">
         <v>36</v>
@@ -4453,7 +4453,7 @@
         <v>247</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D75">
         <v>39</v>
@@ -4467,7 +4467,7 @@
         <v>248</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -4481,7 +4481,7 @@
         <v>249</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D77">
         <v>47</v>
@@ -4495,7 +4495,7 @@
         <v>250</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D78">
         <v>64</v>
@@ -4509,7 +4509,7 @@
         <v>251</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D79">
         <v>80</v>
@@ -4523,7 +4523,7 @@
         <v>252</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D80">
         <v>80</v>
@@ -4537,7 +4537,7 @@
         <v>253</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -4551,7 +4551,7 @@
         <v>254</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D82">
         <v>60</v>
@@ -4565,7 +4565,7 @@
         <v>255</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D83">
         <v>49</v>
@@ -4579,7 +4579,7 @@
         <v>256</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D84">
         <v>47</v>
@@ -4593,7 +4593,7 @@
         <v>257</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D85">
         <v>91</v>
@@ -4607,7 +4607,7 @@
         <v>258</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D86">
         <v>64</v>
@@ -4621,7 +4621,7 @@
         <v>259</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4635,7 +4635,7 @@
         <v>260</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D88">
         <v>29</v>
@@ -4649,7 +4649,7 @@
         <v>261</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D89">
         <v>58</v>
@@ -4663,7 +4663,7 @@
         <v>262</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D90">
         <v>24</v>
@@ -4677,7 +4677,7 @@
         <v>263</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -4691,7 +4691,7 @@
         <v>264</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D92">
         <v>69</v>
@@ -4705,7 +4705,7 @@
         <v>265</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D93">
         <v>71</v>
@@ -4719,7 +4719,7 @@
         <v>266</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D94">
         <v>21</v>
@@ -4733,7 +4733,7 @@
         <v>267</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D95">
         <v>39</v>
@@ -4747,7 +4747,7 @@
         <v>268</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D96">
         <v>27</v>
@@ -4761,7 +4761,7 @@
         <v>269</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D97">
         <v>29</v>
@@ -4775,7 +4775,7 @@
         <v>270</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D98">
         <v>30</v>
@@ -4789,7 +4789,7 @@
         <v>271</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D99">
         <v>67</v>
@@ -4803,7 +4803,7 @@
         <v>272</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -4817,7 +4817,7 @@
         <v>273</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -4831,7 +4831,7 @@
         <v>274</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D102">
         <v>22</v>
@@ -4845,7 +4845,7 @@
         <v>275</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D103">
         <v>29</v>
@@ -4859,7 +4859,7 @@
         <v>276</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D104">
         <v>71</v>
@@ -4873,7 +4873,7 @@
         <v>277</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D105">
         <v>42</v>
@@ -4887,7 +4887,7 @@
         <v>278</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D106">
         <v>26</v>
@@ -4901,7 +4901,7 @@
         <v>279</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D107">
         <v>18</v>
@@ -4915,7 +4915,7 @@
         <v>280</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D108">
         <v>71</v>
@@ -4929,7 +4929,7 @@
         <v>281</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D109">
         <v>6</v>
@@ -4943,7 +4943,7 @@
         <v>282</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D110">
         <v>71</v>
@@ -4957,7 +4957,7 @@
         <v>283</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D111">
         <v>8</v>
@@ -4971,7 +4971,7 @@
         <v>284</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D112">
         <v>39</v>
@@ -4985,7 +4985,7 @@
         <v>285</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D113">
         <v>21</v>
@@ -4996,10 +4996,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -5010,10 +5010,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D115">
         <v>32</v>
@@ -5027,7 +5027,7 @@
         <v>286</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -5041,7 +5041,7 @@
         <v>287</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D117">
         <v>75</v>
@@ -5055,7 +5055,7 @@
         <v>288</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D118">
         <v>21</v>
@@ -5066,10 +5066,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D119">
         <v>29</v>
@@ -5082,6 +5082,9 @@
       <c r="B120" t="s">
         <v>289</v>
       </c>
+      <c r="C120" s="1" t="s">
+        <v>1004</v>
+      </c>
       <c r="D120">
         <v>6</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>290</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D121">
         <v>49</v>
@@ -5108,7 +5111,7 @@
         <v>291</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D122">
         <v>21</v>
@@ -5122,7 +5125,7 @@
         <v>292</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D123">
         <v>54</v>
@@ -5136,7 +5139,7 @@
         <v>293</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D124">
         <v>59</v>
@@ -5150,7 +5153,7 @@
         <v>294</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D125">
         <v>86</v>
@@ -5164,7 +5167,7 @@
         <v>295</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D126">
         <v>71</v>
@@ -5178,7 +5181,7 @@
         <v>296</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D127">
         <v>21</v>
@@ -5192,7 +5195,7 @@
         <v>297</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D128">
         <v>86</v>
@@ -5206,7 +5209,7 @@
         <v>298</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D129">
         <v>39</v>
@@ -5220,7 +5223,7 @@
         <v>299</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D130">
         <v>10</v>
@@ -5234,7 +5237,7 @@
         <v>300</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D131">
         <v>78</v>
@@ -5248,7 +5251,7 @@
         <v>301</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D132">
         <v>29</v>
@@ -5262,7 +5265,7 @@
         <v>302</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D133">
         <v>67</v>
@@ -5276,7 +5279,7 @@
         <v>303</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D134">
         <v>71</v>
@@ -5290,7 +5293,7 @@
         <v>304</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D135">
         <v>27</v>
@@ -5304,7 +5307,7 @@
         <v>305</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -5318,7 +5321,7 @@
         <v>306</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D137">
         <v>72</v>
@@ -5332,7 +5335,7 @@
         <v>307</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D138">
         <v>33</v>
@@ -5346,7 +5349,7 @@
         <v>308</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D139">
         <v>89</v>
@@ -5360,7 +5363,7 @@
         <v>309</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D140">
         <v>29</v>
@@ -5374,7 +5377,7 @@
         <v>310</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -5388,7 +5391,7 @@
         <v>311</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -5402,7 +5405,7 @@
         <v>312</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D143">
         <v>17</v>
@@ -5416,7 +5419,7 @@
         <v>313</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -5430,7 +5433,7 @@
         <v>314</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D145">
         <v>83</v>
@@ -5444,7 +5447,7 @@
         <v>315</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D146">
         <v>59</v>
@@ -5458,7 +5461,7 @@
         <v>316</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D147">
         <v>47</v>
@@ -5472,7 +5475,7 @@
         <v>317</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D148">
         <v>29</v>
@@ -5483,10 +5486,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D149">
         <v>29</v>
@@ -5500,7 +5503,7 @@
         <v>318</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D150">
         <v>59</v>
@@ -5514,7 +5517,7 @@
         <v>319</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D151">
         <v>39</v>
@@ -5528,7 +5531,7 @@
         <v>320</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5542,7 +5545,7 @@
         <v>321</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D153">
         <v>48</v>
@@ -5556,7 +5559,7 @@
         <v>322</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D154">
         <v>82</v>
@@ -5570,7 +5573,7 @@
         <v>323</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D155">
         <v>85</v>
@@ -5584,7 +5587,7 @@
         <v>324</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D156">
         <v>39</v>
@@ -5598,7 +5601,7 @@
         <v>325</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D157">
         <v>6</v>
@@ -5609,10 +5612,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D158">
         <v>77</v>
@@ -5626,7 +5629,7 @@
         <v>326</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D159">
         <v>81</v>
@@ -5640,7 +5643,7 @@
         <v>327</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D160">
         <v>69</v>
@@ -5651,10 +5654,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D161">
         <v>6</v>
@@ -5668,7 +5671,7 @@
         <v>328</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D162">
         <v>40</v>
@@ -5682,7 +5685,7 @@
         <v>329</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -5696,7 +5699,7 @@
         <v>330</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D164">
         <v>39</v>
@@ -5710,7 +5713,7 @@
         <v>331</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D165">
         <v>10</v>
@@ -5724,7 +5727,7 @@
         <v>332</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D166">
         <v>54</v>
@@ -5738,7 +5741,7 @@
         <v>333</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D167">
         <v>60</v>
@@ -5752,7 +5755,7 @@
         <v>334</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D168">
         <v>10</v>
@@ -5766,7 +5769,7 @@
         <v>335</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D169">
         <v>60</v>
@@ -5780,7 +5783,7 @@
         <v>336</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D170">
         <v>75</v>
@@ -5794,7 +5797,7 @@
         <v>337</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D171">
         <v>38</v>
@@ -5808,7 +5811,7 @@
         <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D172">
         <v>59</v>
@@ -5822,7 +5825,7 @@
         <v>339</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D173">
         <v>24</v>
@@ -5836,7 +5839,7 @@
         <v>340</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D174">
         <v>57</v>
@@ -5850,7 +5853,7 @@
         <v>341</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D175">
         <v>6</v>
@@ -5864,7 +5867,7 @@
         <v>342</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D176">
         <v>6</v>
@@ -5878,7 +5881,7 @@
         <v>343</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D177">
         <v>16</v>
@@ -5892,7 +5895,7 @@
         <v>344</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D178">
         <v>71</v>
@@ -5906,7 +5909,7 @@
         <v>345</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D179">
         <v>36</v>
@@ -5920,7 +5923,7 @@
         <v>346</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D180">
         <v>10</v>
@@ -5934,7 +5937,7 @@
         <v>347</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D181">
         <v>10</v>
@@ -5948,7 +5951,7 @@
         <v>348</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D182">
         <v>56</v>
@@ -5962,7 +5965,7 @@
         <v>349</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D183">
         <v>41</v>
@@ -5976,7 +5979,7 @@
         <v>350</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D184">
         <v>21</v>
@@ -5990,7 +5993,7 @@
         <v>351</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D185">
         <v>39</v>
@@ -6004,7 +6007,7 @@
         <v>352</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D186">
         <v>6</v>
@@ -6018,7 +6021,7 @@
         <v>353</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D187">
         <v>24</v>
@@ -6032,7 +6035,7 @@
         <v>354</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D188">
         <v>54</v>
@@ -6046,7 +6049,7 @@
         <v>355</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D189">
         <v>6</v>
@@ -6060,7 +6063,7 @@
         <v>356</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -6074,7 +6077,7 @@
         <v>357</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D191">
         <v>29</v>
@@ -6088,7 +6091,7 @@
         <v>358</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D192">
         <v>39</v>
@@ -6102,189 +6105,189 @@
         <v>359</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>319</v>
+    <row r="194" spans="1:4" s="3" customFormat="1">
+      <c r="A194" s="3">
+        <v>194</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D194">
-        <v>39</v>
+        <v>776</v>
+      </c>
+      <c r="D194" s="3">
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D195">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D196">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>362</v>
+        <v>779</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D197">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>784</v>
+        <v>363</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D198">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D199">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D200">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D201">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D202">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D203">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D204">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D205">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>370</v>
+        <v>789</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D206">
         <v>22</v>
@@ -6292,223 +6295,223 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>794</v>
+        <v>371</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D207">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D208">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D209">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D211">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D213">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D214">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D215">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D216">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D217">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>382</v>
+        <v>577</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D219">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>579</v>
+        <v>383</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D220">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D221">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D222">
         <v>71</v>
@@ -6516,97 +6519,97 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D223">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D224">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D225">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>389</v>
+        <v>811</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D227">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>816</v>
+        <v>390</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D228">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D229">
         <v>6</v>
@@ -6614,223 +6617,223 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D231">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D232">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D233">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D234">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D235">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>397</v>
+        <v>821</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D236">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>826</v>
+        <v>398</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D237">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D238">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D239">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D241">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D242">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D243">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D244">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -6838,839 +6841,839 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D247">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D248">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D249">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>687</v>
+        <v>836</v>
       </c>
       <c r="D250">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>411</v>
+        <v>580</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D251">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B252" t="s">
         <v>412</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D252">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>585</v>
+        <v>136</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D253">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B254" t="s">
         <v>413</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D254">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D255">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D256">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D257">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>416</v>
+        <v>562</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D258">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
         <v>417</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D259">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>564</v>
+        <v>846</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D260">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
         <v>418</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D261">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>851</v>
+        <v>578</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D262">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B263" t="s">
         <v>419</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D263">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D264">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D265">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D266">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D267">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>423</v>
+        <v>855</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D268">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
         <v>424</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D269">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>860</v>
+        <v>563</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D270">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s">
         <v>425</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D271">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>565</v>
+        <v>426</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D272">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D273">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D275">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D276">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D278">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>432</v>
+        <v>867</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>870</v>
       </c>
       <c r="D279">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>433</v>
+        <v>868</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D280">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>872</v>
+        <v>433</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D281">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>873</v>
+        <v>554</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D282">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B283" t="s">
         <v>434</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D283">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D284">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D286">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D287">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D288">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D289">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D290">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D291">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D292">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D295">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D296">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D297">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>448</v>
+        <v>1005</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D298">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B299" t="s">
         <v>449</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>558</v>
+        <v>450</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D300">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D301">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D302">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D304">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D305">
         <v>71</v>
@@ -7678,111 +7681,111 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B306" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D306">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B307" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D307">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B308" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D308">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D309">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D310">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D311">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B312" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D312">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B313" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D313">
         <v>36</v>
@@ -7790,195 +7793,195 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B314" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D314">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B315" t="s">
-        <v>464</v>
+        <v>905</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D315">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B316" t="s">
-        <v>465</v>
+        <v>907</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D316">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B317" t="s">
-        <v>910</v>
+        <v>465</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D317">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>912</v>
+        <v>545</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D318">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B319" t="s">
         <v>466</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>914</v>
+        <v>593</v>
       </c>
       <c r="D319">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B320" t="s">
-        <v>546</v>
+        <v>467</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D320">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B321" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>598</v>
+        <v>912</v>
       </c>
       <c r="D321">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B322" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D322">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B323" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D323">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B324" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D324">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B325" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D325">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B326" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D326">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B327" t="s">
-        <v>473</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>921</v>
+        <v>474</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>919</v>
       </c>
       <c r="D327">
         <v>86</v>
@@ -7986,209 +7989,209 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B328" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D328">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B329" t="s">
-        <v>475</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>924</v>
+        <v>476</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="D329">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B330" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D330">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B331" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D331">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B332" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D332">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B333" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D333">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D334">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B335" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D335">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>482</v>
+        <v>579</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D336">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B337" t="s">
         <v>483</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D337">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B338" t="s">
-        <v>581</v>
+        <v>929</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D338">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B339" t="s">
         <v>484</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D339">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>934</v>
+        <v>485</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D340">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D341">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B342" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D342">
         <v>86</v>
@@ -8196,797 +8199,797 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D343">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B344" t="s">
         <v>488</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D344">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>548</v>
+        <v>489</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D345">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D346">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D348">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D349">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D350">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D351">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D352">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D353">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D354">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>498</v>
+        <v>1006</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D355">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B356" t="s">
         <v>499</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D356">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>582</v>
+        <v>500</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D357">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D358">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D359">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D360">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D361">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D362">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D364">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D365">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D366">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D367">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D368">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D369">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D370">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D371">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B372" t="s">
         <v>514</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D372">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B373" t="s">
-        <v>553</v>
+        <v>515</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D373">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>515</v>
+        <v>1007</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D374">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B375" t="s">
         <v>516</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D375">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B376" t="s">
-        <v>583</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>971</v>
+        <v>580</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="D376">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B377" t="s">
-        <v>517</v>
+        <v>968</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D377">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B378" t="s">
-        <v>585</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>842</v>
+        <v>517</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="D378">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B379" t="s">
-        <v>973</v>
+        <v>518</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D379">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B380" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D380">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B381" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D381">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B382" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D382">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B383" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D383">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B384" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D384">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B385" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D385">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B386" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D386">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B387" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D387">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B388" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D388">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B389" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B390" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B391" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D391">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B392" t="s">
-        <v>530</v>
+        <v>984</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>987</v>
+        <v>724</v>
       </c>
       <c r="D392">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B393" t="s">
         <v>531</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="D393">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B394" t="s">
-        <v>989</v>
+        <v>532</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>729</v>
+        <v>986</v>
       </c>
       <c r="D394">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B395" t="s">
-        <v>532</v>
+        <v>987</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D395">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B396" t="s">
         <v>533</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D396">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B397" t="s">
-        <v>992</v>
+        <v>534</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D397">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B398" t="s">
-        <v>534</v>
+        <v>991</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D398">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B399" t="s">
         <v>535</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D399">
         <v>71</v>
@@ -8994,111 +8997,111 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>996</v>
+        <v>536</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D400">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B401" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D401">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B402" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="D402">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B403" t="s">
         <v>538</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D403">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B404" t="s">
-        <v>584</v>
+        <v>539</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="D404">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B405" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D405">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B406" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D406">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B407" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D407">
         <v>36</v>
@@ -9106,57 +9109,29 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B408" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D408">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B409" t="s">
-        <v>543</v>
+        <v>1002</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D409">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410">
-        <v>409</v>
-      </c>
-      <c r="B410" t="s">
-        <v>544</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D410">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411">
-        <v>410</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D411">
         <v>59</v>
       </c>
     </row>
@@ -9211,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -9673,7 +9648,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C44" t="s">
         <v>108</v>
@@ -10179,10 +10154,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -10190,10 +10165,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -10201,10 +10176,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C92" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -10212,10 +10187,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C93" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10223,10 +10198,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10234,10 +10209,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10245,10 +10220,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10256,10 +10231,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -10267,10 +10242,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -10278,10 +10253,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/Extras/AvesTables.xlsx
+++ b/Extras/AvesTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bird" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1019">
   <si>
     <t>Id</t>
   </si>
@@ -3040,6 +3040,39 @@
   </si>
   <si>
     <t>Hudsonian whimbrel</t>
+  </si>
+  <si>
+    <t>BirdId</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Coordinate</t>
+  </si>
+  <si>
+    <t>KeyImage</t>
+  </si>
+  <si>
+    <t>dsc5740w</t>
+  </si>
+  <si>
+    <t>dsc09835w</t>
+  </si>
+  <si>
+    <t>rcc05368w</t>
+  </si>
+  <si>
+    <t>rcc09277_1w</t>
   </si>
 </sst>
 </file>
@@ -3398,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9143,14 +9176,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A22:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>388</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
